--- a/src/main/resources/templates/projectMemberRoleTemplates.xlsx
+++ b/src/main/resources/templates/projectMemberRoleTemplates.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\base-service\src\main\resources\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\hzero\hzero-iam\src\main\resources\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B309E284-22DC-41A6-9B9E-9944689F325C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF000E2D-F3B8-4859-878C-B0AA3A2B8A39}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -50,9 +50,6 @@
     <t>登录名*</t>
   </si>
   <si>
-    <t>角色编码*</t>
-  </si>
-  <si>
     <t>角色名称</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -65,14 +62,20 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>role/project/default/project-owner</t>
-  </si>
-  <si>
     <t>项目成员</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>role/project/default/project-member</t>
+    <t>角色标签*</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PROJECT_ADMIN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PROJECT_MEMBER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -151,87 +154,19 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -251,7 +186,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -504,7 +439,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -513,16 +448,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="30.95" customHeight="1">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="7" t="s">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
     </row>
     <row r="2" spans="1:6" ht="24.95" customHeight="1">
       <c r="A2" s="4" t="s">
@@ -534,9 +469,9 @@
       <c r="C2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="5" t="s">
@@ -548,9 +483,9 @@
       <c r="C3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
@@ -558,53 +493,53 @@
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
     </row>
     <row r="6" spans="1:6" ht="15.75" customHeight="1">
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
     </row>
     <row r="7" spans="1:6" s="3" customFormat="1" ht="15.75" customHeight="1">
       <c r="A7"/>
       <c r="B7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>10</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>13</v>
+        <v>11</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>15</v>
       </c>
     </row>
@@ -623,7 +558,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -638,14 +573,14 @@
         <v>8</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B1048576" xr:uid="{9C04569E-58D5-4E18-AC3D-BDAF493970A8}">
-      <formula1>"role/project/default/project-owner,role/project/default/project-member"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B1048576" xr:uid="{51DACBB2-9869-45E9-9573-CDF4A39ECB29}">
+      <formula1>"PROJECT_ADMIN,PROJECT_MEMBER"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/templates/projectMemberRoleTemplates.xlsx
+++ b/src/main/resources/templates/projectMemberRoleTemplates.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\hzero\hzero-iam\src\main\resources\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF000E2D-F3B8-4859-878C-B0AA3A2B8A39}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E61A0A41-E83D-4985-8A30-1194D60A999B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="2" r:id="rId1"/>
@@ -35,9 +35,6 @@
     <t>登录名</t>
   </si>
   <si>
-    <t>角色编码</t>
-  </si>
-  <si>
     <t>必填项</t>
   </si>
   <si>
@@ -54,10 +51,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>角色编码</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>项目所有者</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -75,6 +68,14 @@
   </si>
   <si>
     <t>PROJECT_MEMBER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色标签</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色标签</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -438,8 +439,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -467,7 +468,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
@@ -475,13 +476,13 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>6</v>
-      </c>
       <c r="C3" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
@@ -489,7 +490,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -521,26 +522,26 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -558,8 +559,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -570,10 +571,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/templates/projectMemberRoleTemplates.xlsx
+++ b/src/main/resources/templates/projectMemberRoleTemplates.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\hzero\hzero-iam\src\main\resources\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E61A0A41-E83D-4985-8A30-1194D60A999B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCB82AA4-BF2E-442B-AECB-D93DA3EA4A04}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="2" r:id="rId1"/>
@@ -168,6 +168,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -187,7 +255,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -439,7 +507,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -559,8 +627,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -580,7 +648,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B1048576" xr:uid="{51DACBB2-9869-45E9-9573-CDF4A39ECB29}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B1048576" xr:uid="{51DACBB2-9869-45E9-9573-CDF4A39ECB29}">
       <formula1>"PROJECT_ADMIN,PROJECT_MEMBER"</formula1>
     </dataValidation>
   </dataValidations>

--- a/src/main/resources/templates/projectMemberRoleTemplates.xlsx
+++ b/src/main/resources/templates/projectMemberRoleTemplates.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\hzero\hzero-iam\src\main\resources\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\choerodon\choerodon-iam\src\main\resources\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCB82AA4-BF2E-442B-AECB-D93DA3EA4A04}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="2" r:id="rId1"/>
@@ -21,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>字段是否为必填项</t>
   </si>
@@ -51,38 +50,46 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>项目成员</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色编码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>项目所有者</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>项目成员</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>角色标签*</t>
+    <t>project-admin</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PROJECT_ADMIN</t>
+    <t>project-member</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PROJECT_MEMBER</t>
+    <t>自定义角色</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>角色标签</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>角色标签</t>
+    <t>自定义角色编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色编码*</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4">
     <font>
       <sz val="12"/>
@@ -144,7 +151,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -162,80 +169,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -255,7 +195,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -504,19 +444,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="15.375" customWidth="1"/>
+    <col min="1" max="1" width="15.36328125" customWidth="1"/>
+    <col min="2" max="2" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="30.95" customHeight="1">
+    <row r="1" spans="1:6" ht="30.9" customHeight="1">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -528,7 +469,7 @@
       <c r="E1" s="8"/>
       <c r="F1" s="8"/>
     </row>
-    <row r="2" spans="1:6" ht="24.95" customHeight="1">
+    <row r="2" spans="1:6" ht="24.9" customHeight="1">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
@@ -536,7 +477,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
@@ -593,23 +534,31 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="16.2">
+      <c r="A10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="16.2">
+      <c r="A11" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>13</v>
+    <row r="12" spans="1:6">
+      <c r="A12" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -624,17 +573,17 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="11" style="1"/>
-    <col min="2" max="2" width="37.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="37.7265625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -642,16 +591,23 @@
         <v>7</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B1048576" xr:uid="{51DACBB2-9869-45E9-9573-CDF4A39ECB29}">
-      <formula1>"PROJECT_ADMIN,PROJECT_MEMBER"</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1">
+          <x14:formula1>
+            <xm:f>README!$B$10:$B$12</xm:f>
+          </x14:formula1>
+          <xm:sqref>B1:B1048576</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/src/main/resources/templates/projectMemberRoleTemplates.xlsx
+++ b/src/main/resources/templates/projectMemberRoleTemplates.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\choerodon\choerodon-iam\src\main\resources\templates\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="1"/>
+    <workbookView windowWidth="27636" windowHeight="13260" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="2" r:id="rId1"/>
@@ -20,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="20">
   <si>
     <t>字段是否为必填项</t>
   </si>
@@ -34,6 +29,15 @@
     <t>登录名</t>
   </si>
   <si>
+    <t>角色编码</t>
+  </si>
+  <si>
+    <t>计划进场时间</t>
+  </si>
+  <si>
+    <t>计划撤场时间</t>
+  </si>
+  <si>
     <t>必填项</t>
   </si>
   <si>
@@ -43,88 +47,407 @@
     <t>选填项</t>
   </si>
   <si>
+    <t>角色名称</t>
+  </si>
+  <si>
+    <t>项目所有者</t>
+  </si>
+  <si>
+    <t>project-admin</t>
+  </si>
+  <si>
+    <t>2022.04.20</t>
+  </si>
+  <si>
+    <t>项目成员</t>
+  </si>
+  <si>
+    <t>project-member</t>
+  </si>
+  <si>
+    <t>自定义角色</t>
+  </si>
+  <si>
+    <t>自定义角色编码</t>
+  </si>
+  <si>
     <t>登录名*</t>
   </si>
   <si>
-    <t>角色名称</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目成员</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>角色编码</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>角色编码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目所有者</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>project-admin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>project-member</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自定义角色</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自定义角色编码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>角色编码*</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="DengXian"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Segoe UI"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -147,41 +470,347 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -439,175 +1068,216 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="15.36328125" customWidth="1"/>
+    <col min="1" max="1" width="15.3636363636364" customWidth="1"/>
     <col min="2" max="2" width="17" customWidth="1"/>
+    <col min="3" max="3" width="15.7272727272727" customWidth="1"/>
+    <col min="4" max="4" width="18.5454545454545" customWidth="1"/>
+    <col min="5" max="5" width="13.7272727272727" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="30.9" customHeight="1">
-      <c r="A1" s="7" t="s">
+    <row r="1" ht="30.9" customHeight="1" spans="1:8">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="8" t="s">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
     </row>
-    <row r="2" spans="1:6" ht="24.9" customHeight="1">
-      <c r="A2" s="4" t="s">
+    <row r="2" ht="24.9" customHeight="1" spans="1:8">
+      <c r="A2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
+      <c r="C2" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
+    <row r="3" spans="1:8">
+      <c r="A3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
     </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
+    <row r="4" spans="1:8">
+      <c r="A4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
     </row>
-    <row r="5" spans="1:6">
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
+    <row r="5" spans="4:8">
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
     </row>
-    <row r="6" spans="1:6" ht="15.75" customHeight="1">
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
+    <row r="6" ht="15.75" customHeight="1" spans="4:8">
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
     </row>
-    <row r="7" spans="1:6" s="3" customFormat="1" ht="15.75" customHeight="1">
+    <row r="7" s="4" customFormat="1" ht="15.75" customHeight="1" spans="1:8">
       <c r="A7"/>
       <c r="B7"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
     </row>
-    <row r="8" spans="1:6">
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
+    <row r="8" spans="4:8">
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
     </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="5" t="s">
+    <row r="9" spans="1:4">
+      <c r="A9" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="B9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="10" spans="1:6" ht="16.2">
-      <c r="A10" s="5" t="s">
+    <row r="10" spans="1:4">
+      <c r="A10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="C10" s="11" t="s">
         <v>13</v>
       </c>
+      <c r="D10" s="11" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="11" spans="1:6" ht="16.2">
-      <c r="A11" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="6" t="s">
+    <row r="11" spans="1:2">
+      <c r="A11" s="3" t="s">
         <v>14</v>
       </c>
+      <c r="B11" s="10" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="9" t="s">
+    <row r="12" spans="1:2">
+      <c r="A12" s="12" t="s">
         <v>16</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:F8"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="F1:H8"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="11" style="1"/>
-    <col min="2" max="2" width="37.7265625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="37.7272727272727" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.2727272727273" customWidth="1"/>
+    <col min="4" max="4" width="16.1818181818182" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="B$1:B$1048576">
+      <formula1>README!$B$10:$B$12</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1">
-          <x14:formula1>
-            <xm:f>README!$B$10:$B$12</xm:f>
-          </x14:formula1>
-          <xm:sqref>B1:B1048576</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
+  <headerFooter/>
 </worksheet>
 </file>